--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1874.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1874.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.59851511346624</v>
+        <v>2.349533081054688</v>
       </c>
       <c r="B1">
-        <v>4.197660995899272</v>
+        <v>2.133534908294678</v>
       </c>
       <c r="C1">
-        <v>4.529808211540437</v>
+        <v>2.034304141998291</v>
       </c>
       <c r="D1">
-        <v>1.225342456213351</v>
+        <v>2.718106269836426</v>
       </c>
       <c r="E1">
-        <v>0.7211637994971297</v>
+        <v>4.220511913299561</v>
       </c>
     </row>
   </sheetData>
